--- a/data/trans_orig/SENTADO_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SENTADO_TIEMPO-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se está sentado</t>
+          <t>Nº medio de minutos/día en los que se está sentado (tasa de respuesta: 99,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>256,58</t>
+          <t>254,82</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>275,8</t>
+          <t>274,94</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>243,8; 273,97</t>
+          <t>242,12; 270,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>265,97; 288,94</t>
+          <t>264,93; 287,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>292,42</t>
+          <t>291,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>295,16</t>
+          <t>294,93</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>282,77; 301,1</t>
+          <t>282,55; 301,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>289,66; 301,71</t>
+          <t>289,2; 301,55</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_orig/SENTADO_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SENTADO_TIEMPO-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>373,32</t>
+          <t>358,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>348,69</t>
+          <t>346,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>360,86</t>
+          <t>352,34</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>355,35; 392,2</t>
+          <t>338,94; 378,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>362,88; 399,36</t>
+          <t>360,71; 399,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>392,77; 424,19</t>
+          <t>392,44; 422,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>331,67; 368,33</t>
+          <t>326,98; 365,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>321,87; 355,01</t>
+          <t>322,56; 357,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>345,83; 381,2</t>
+          <t>346,99; 383,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>347,29; 375,03</t>
+          <t>338,69; 367,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>349,81; 375,42</t>
+          <t>349,08; 375,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>373,56; 397,88</t>
+          <t>374,07; 397,42</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>379,41</t>
+          <t>367,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>370,0</t>
+          <t>349,86</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>373,94</t>
+          <t>357,93</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>355,23; 410,4</t>
+          <t>340,15; 396,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>358,9; 404,37</t>
+          <t>356,6; 401,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>365,64; 411,74</t>
+          <t>364,68; 411,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>349,3; 389,09</t>
+          <t>330,14; 371,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>359,64; 402,13</t>
+          <t>357,36; 398,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>370,59; 406,75</t>
+          <t>368,07; 408,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>358,52; 390,88</t>
+          <t>340,94; 374,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>363,58; 395,5</t>
+          <t>365,17; 396,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>372,99; 402,91</t>
+          <t>373,72; 403,74</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>322,47</t>
+          <t>320,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>318,4</t>
+          <t>299,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>321,29</t>
+          <t>314,64</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>303,44; 342,89</t>
+          <t>301,42; 340,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>315,53; 359,68</t>
+          <t>313,74; 361,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>262,57; 317,61</t>
+          <t>261,81; 315,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>292,0; 349,61</t>
+          <t>273,6; 330,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>310,31; 370,59</t>
+          <t>313,29; 373,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>257,1; 327,66</t>
+          <t>252,25; 330,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>304,9; 337,34</t>
+          <t>299,26; 331,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>319,42; 357,04</t>
+          <t>319,8; 357,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>265,88; 309,19</t>
+          <t>267,42; 312,99</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>348,58</t>
+          <t>324,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>312,72</t>
+          <t>297,88</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>329,84</t>
+          <t>310,9</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>328,65; 368,96</t>
+          <t>303,31; 344,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>334,59; 369,76</t>
+          <t>331,52; 369,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>237,56; 284,93</t>
+          <t>236,91; 286,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>296,73; 332,65</t>
+          <t>280,4; 319,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>162,51; 286,59</t>
+          <t>160,79; 286,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>238,18; 281,4</t>
+          <t>238,39; 281,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>316,74; 343,98</t>
+          <t>297,19; 325,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>216,77; 324,01</t>
+          <t>210,27; 324,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>242,73; 274,61</t>
+          <t>244,03; 274,98</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>287,51</t>
+          <t>280,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>302,64</t>
+          <t>296,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>297,57</t>
+          <t>290,75</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>264,1; 314,71</t>
+          <t>253,57; 313,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>270,62; 319,1</t>
+          <t>270,95; 321,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>228,76; 315,81</t>
+          <t>227,41; 314,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>282,82; 323,57</t>
+          <t>272,39; 320,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>164,8; 311,78</t>
+          <t>177,34; 312,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>212,34; 285,79</t>
+          <t>210,32; 285,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>283,37; 316,53</t>
+          <t>273,71; 310,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>193,84; 305,45</t>
+          <t>200,18; 305,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>228,27; 283,06</t>
+          <t>226,48; 284,65</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>389,05</t>
+          <t>366,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>428,6</t>
+          <t>425,49</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>419,83</t>
+          <t>408,87</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>347,08; 429,97</t>
+          <t>309,14; 406,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>333,46; 410,93</t>
+          <t>332,84; 409,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>342,04; 446,9</t>
+          <t>346,31; 451,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>403,64; 453,17</t>
+          <t>399,12; 455,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>382,33; 416,48</t>
+          <t>382,07; 417,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>318,47; 428,71</t>
+          <t>318,08; 424,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>399,0; 441,72</t>
+          <t>385,08; 433,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>376,98; 409,13</t>
+          <t>377,26; 407,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>343,3; 422,12</t>
+          <t>345,29; 417,18</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>347,51</t>
+          <t>336,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>344,84</t>
+          <t>337,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>346,07</t>
+          <t>336,65</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>338,87; 356,65</t>
+          <t>325,53; 345,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>346,16; 363,19</t>
+          <t>346,2; 363,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>329,51; 352,43</t>
+          <t>329,79; 351,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>336,09; 354,46</t>
+          <t>328,01; 346,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>257,91; 340,02</t>
+          <t>247,37; 339,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>316,36; 338,95</t>
+          <t>318,31; 338,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>339,85; 352,69</t>
+          <t>329,47; 343,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>291,76; 347,47</t>
+          <t>292,29; 347,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>327,45; 342,92</t>
+          <t>326,42; 342,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SENTADO_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SENTADO_TIEMPO-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>377,15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>407,37</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>326,3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>358,6</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>381,15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>326,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>407,37</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>335,55</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>363,89</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>299,33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>346,56</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>338,45</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>299,33</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>363,89</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>358,01</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>385,78</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>313,34</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>352,34</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>361,7</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>313,34</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>385,78</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>358,45; 394,9</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>392,44; 422,2</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>309,77; 343,5</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>338,94; 378,77</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>360,71; 399,21</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>309,77; 343,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>392,44; 422,2</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>319,95; 352,18</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>346,99; 383,92</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>282,66; 317,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>326,98; 365,47</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>322,56; 357,29</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>282,66; 317,44</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>346,99; 383,92</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>345,49; 371,77</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>374,07; 397,42</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>301,84; 326,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>338,69; 367,3</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>349,08; 375,88</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>301,84; 326,43</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>374,07; 397,42</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>378,87</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>387,06</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>343,04</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>367,34</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>379,54</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>343,04</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>387,06</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>370,67</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>388,11</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>376,7</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>349,86</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>379,1</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>376,7</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>388,11</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>375,07</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>387,66</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>361,21</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>357,93</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>379,34</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>361,21</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>387,66</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>357,36; 399,8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>364,68; 411,52</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>323,67; 361,38</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>340,15; 396,94</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>356,6; 401,07</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>323,67; 361,38</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>364,68; 411,52</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>349,39; 389,81</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>368,07; 408,66</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>357,0; 395,78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>330,14; 371,01</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>357,36; 398,24</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>357,0; 395,78</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>368,07; 408,66</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>360,76; 391,35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>373,72; 403,74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>347,76; 375,96</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>340,94; 374,13</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>365,17; 396,07</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>347,76; 375,96</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>373,72; 403,74</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>319,06</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>287,46</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>231,34</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>320,15</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>342,37</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>231,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>287,46</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>341,72</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>289,54</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>276,97</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>299,24</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>340,7</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>276,97</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>289,54</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>325,95</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>288,15</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>246,08</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>314,64</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>342,09</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>246,08</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>288,15</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>297,76; 342,56</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>261,81; 315,94</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>215,76; 249,96</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>301,42; 340,64</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>313,74; 361,06</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>215,76; 249,96</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>261,81; 315,94</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>312,77; 374,27</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>252,25; 330,9</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>251,93; 310,91</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>273,6; 330,33</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>313,29; 373,69</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>251,93; 310,91</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>252,25; 330,9</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>308,38; 346,4</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>267,42; 312,99</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>231,74; 262,6</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>299,26; 331,3</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>319,8; 357,58</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>231,74; 262,6</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>267,42; 312,99</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>343,11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>260,93</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>295,4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>324,53</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>351,21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>295,4</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>260,93</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>278,72</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>258,22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>254,82</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>297,88</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>226,02</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>254,82</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>258,22</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>314,36</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>259,59</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>274,94</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>310,9</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>281,58</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>274,94</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>259,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>324,38; 359,98</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>236,91; 286,63</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>281,09; 313,68</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>303,31; 344,13</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>331,52; 369,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>281,09; 313,68</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>236,91; 286,63</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>268,04; 292,14</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>238,39; 281,32</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>242,12; 270,92</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>280,4; 319,22</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>160,79; 286,45</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>242,12; 270,92</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>238,39; 281,32</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>303,46; 325,62</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>244,03; 274,98</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>264,93; 287,52</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>297,19; 325,92</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>210,27; 324,25</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>264,93; 287,52</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>244,03; 274,98</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>288,34</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>262,73</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>265,75</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>280,72</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>293,44</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>265,75</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>262,73</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>303,31</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>246,39</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>238,06</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>296,66</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>261,93</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>238,06</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>246,39</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>297,74</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>252,64</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>251,63</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>290,75</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>271,85</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>251,63</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>252,64</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>267,1; 313,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>227,41; 314,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>249,0; 286,17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>253,57; 313,79</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>270,95; 321,02</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>249,0; 286,17</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>227,41; 314,36</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>287,72; 319,94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>210,32; 285,7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>221,17; 264,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>272,39; 320,71</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>177,34; 312,55</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>221,17; 264,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>210,32; 285,7</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>284,65; 311,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>226,48; 284,65</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>238,33; 268,6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>273,71; 310,44</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>200,18; 305,63</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>238,33; 268,6</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>226,48; 284,65</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>366,58</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>404,41</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>257,19</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>366,22</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>371,79</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>257,19</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>404,41</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>396,64</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>363,81</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>227,25</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>425,49</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>399,51</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>227,25</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>363,81</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>389,72</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>378,0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>241,78</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>408,87</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>392,68</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>241,78</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>378,0</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>333,59; 399,43</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>346,31; 451,49</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>185,82; 333,0</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>309,14; 406,6</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>332,84; 409,94</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>185,82; 333,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>346,31; 451,49</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>379,06; 412,55</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>318,08; 424,63</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>185,64; 305,57</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>399,12; 455,59</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>382,07; 417,37</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>185,64; 305,57</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>318,08; 424,63</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>375,46; 403,78</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>345,29; 417,18</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>198,31; 292,6</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>385,08; 433,9</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>377,26; 407,99</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>198,31; 292,6</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>345,29; 417,18</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>347,99</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>341,07</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>297,74</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>336,25</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>354,72</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>297,74</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>341,07</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>336,68</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>328,34</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>291,94</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>337,01</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>308,3</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>291,94</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>328,34</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>342,1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>334,49</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>294,93</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>336,65</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>330,6</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>294,93</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>334,49</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>339,32; 357,22</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>329,79; 351,21</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>289,96; 306,59</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>325,53; 345,41</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>346,2; 363,67</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>289,96; 306,59</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>329,79; 351,21</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>329,34; 344,75</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>318,31; 338,86</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>282,55; 301,03</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>328,01; 346,33</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>247,37; 339,15</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>282,55; 301,03</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>318,31; 338,86</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>336,55; 347,91</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>326,42; 342,29</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>289,2; 301,55</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>329,47; 343,61</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>292,29; 347,67</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>289,2; 301,55</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>326,42; 342,29</t>
         </is>
       </c>
     </row>
